--- a/doc/OperatorPrecedences.xlsx
+++ b/doc/OperatorPrecedences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ffscript\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E5E15F-C97F-4A50-BC0B-E5D5FD0711B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07F10423-4036-41C5-81D9-9E9936AC7F3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9454" xr2:uid="{B57FEF54-65BC-440A-A03B-4C81AF013A3F}"/>
   </bookViews>
@@ -692,9 +692,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -707,36 +704,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -747,6 +717,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,351 +1064,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97905A56-4F7E-4C91-B770-98DA84DB8366}">
   <dimension ref="C4:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="7.07421875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.61328125" customWidth="1"/>
-    <col min="5" max="5" width="39.23046875" customWidth="1"/>
+    <col min="5" max="5" width="51.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="14">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="17">
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C16" s="17">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="17">
+      <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="1">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="1"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="17">
+      <c r="C20" s="7">
         <v>7</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="17">
+      <c r="C21" s="7">
         <v>8</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="17">
+      <c r="C22" s="7">
         <v>9</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="17">
+      <c r="C23" s="7">
         <v>10</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C24" s="17">
+      <c r="C24" s="7">
         <v>11</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C25" s="17">
+      <c r="C25" s="7">
         <v>12</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="1">
+      <c r="C26" s="11">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="1"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C28" s="1"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C29" s="1"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C30" s="1"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C31" s="1"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C32" s="17">
+      <c r="C32" s="7">
         <v>14</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E33" s="9"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/OperatorPrecedences.xlsx
+++ b/doc/OperatorPrecedences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ffscript\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07F10423-4036-41C5-81D9-9E9936AC7F3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2264BC8D-034A-4BD8-ACD6-E133A3278DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9454" xr2:uid="{B57FEF54-65BC-440A-A03B-4C81AF013A3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Precedence</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Ternary conditional</t>
+  </si>
+  <si>
+    <t>type cast operator</t>
+  </si>
+  <si>
+    <t>(type)</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97905A56-4F7E-4C91-B770-98DA84DB8366}">
-  <dimension ref="C4:F33"/>
+  <dimension ref="C4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1188,238 +1194,248 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="20"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="20"/>
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="11">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C19" s="11">
         <v>6</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="11"/>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C20" s="11"/>
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="7">
-        <v>7</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C21" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C23" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="7">
         <v>12</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C26" s="11">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C27" s="11">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C27" s="11"/>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C31" s="11"/>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C32" s="7">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="7">
         <v>14</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E33" s="5"/>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="F15:F25"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F16:F26"/>
     <mergeCell ref="F5:F11"/>
     <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
